--- a/CR exemple.xlsx
+++ b/CR exemple.xlsx
@@ -94,13 +94,13 @@
     <t>Impôts exigibles sur résultats ordinaires</t>
   </si>
   <si>
-    <t>695 et 698</t>
+    <t xml:space="preserve">695 </t>
   </si>
   <si>
     <t>Impôts différés (Variations) sur résultats ordinaires</t>
   </si>
   <si>
-    <t>692 et 693</t>
+    <t xml:space="preserve">692 </t>
   </si>
   <si>
     <t>TOTAL DES PRODUITS DES ACTIVITES ORDINAIRES</t>
@@ -154,16 +154,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -226,29 +226,29 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,7 +875,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="5">
-        <v>71</v>
+        <v>777</v>
       </c>
       <c r="C38" s="7">
         <v>6000</v>
@@ -886,7 +886,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="5">
-        <v>67</v>
+        <v>775</v>
       </c>
       <c r="C39" s="7">
         <v>2000</v>
@@ -920,7 +920,9 @@
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5">
+        <v>12</v>
+      </c>
       <c r="C44" s="12">
         <v>231000</v>
       </c>
